--- a/result/lightgbm_genetic_algorithm_results.xlsx
+++ b/result/lightgbm_genetic_algorithm_results.xlsx
@@ -25,6 +25,21 @@
     <sheet name="MC2 Performance Metrics" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="MC2 Best Hyperparameters" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="MC2 Classification Report" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MW1 Performance Metrics" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="MW1 Best Hyperparameters" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="MW1 Classification Report" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="PC1 Performance Metrics" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="PC1 Best Hyperparameters" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="PC1 Classification Report" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="PC2 Performance Metrics" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="PC2 Best Hyperparameters" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="PC2 Classification Report" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="PC3 Performance Metrics" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="PC3 Best Hyperparameters" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="PC3 Classification Report" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="PC4 Performance Metrics" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="PC4 Best Hyperparameters" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="PC4 Classification Report" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -539,7 +554,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9694915254237289</v>
+        <v>0.9747303543913713</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +605,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
     </row>
     <row r="3">
@@ -605,7 +620,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.90625</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="4">
@@ -620,7 +635,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +650,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.90625</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="6">
@@ -650,7 +665,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.94140625</v>
+        <v>0.943359375</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,11 +712,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n_estimators</t>
+          <t>learning_rate</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>96</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -712,11 +727,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>max_depth</t>
+          <t>n_estimators</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -731,7 +746,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -742,11 +757,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>learning_rate</t>
+          <t>min_child_samples</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04267692137287588</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -797,13 +827,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.90625</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="C2" t="n">
         <v>0.90625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.90625</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
@@ -816,13 +846,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.90625</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.90625</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E3" t="n">
         <v>32</v>
@@ -835,16 +865,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
     </row>
     <row r="5">
@@ -854,13 +884,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.90625</v>
+        <v>0.9222873900293255</v>
       </c>
       <c r="C5" t="n">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.90625</v>
+        <v>0.9218559218559219</v>
       </c>
       <c r="E5" t="n">
         <v>64</v>
@@ -873,13 +903,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.90625</v>
+        <v>0.9222873900293255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.90625</v>
+        <v>0.9218559218559219</v>
       </c>
       <c r="E6" t="n">
         <v>64</v>
@@ -993,7 +1023,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9985390796201608</v>
+        <v>0.9994554751311509</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,11 +1070,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n_estimators</t>
+          <t>learning_rate</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>146</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -1055,11 +1085,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>max_depth</t>
+          <t>n_estimators</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1104,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1085,11 +1115,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>learning_rate</t>
+          <t>min_child_samples</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1804633243195083</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1321,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="3">
@@ -1291,7 +1336,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -1306,7 +1351,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="5">
@@ -1321,7 +1366,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -1336,7 +1381,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,11 +1428,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n_estimators</t>
+          <t>learning_rate</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>225</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -1398,11 +1443,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>max_depth</t>
+          <t>n_estimators</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1417,7 +1462,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1428,11 +1473,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>learning_rate</t>
+          <t>min_child_samples</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1017553801435992</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1483,13 +1543,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -1502,13 +1562,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
@@ -1521,16 +1581,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="5">
@@ -1540,13 +1600,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8913043478260869</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8390243902439025</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
@@ -1559,16 +1619,127 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8814229249011858</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8425720620842572</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="E6" t="n">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.978021978021978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9917395529640427</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1615,11 +1786,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n_estimators</t>
+          <t>learning_rate</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>258</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -1630,11 +1801,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>max_depth</t>
+          <t>n_estimators</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -1649,7 +1820,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1660,11 +1831,1211 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>min_child_samples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CM1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>learning_rate</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>num_leaves</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_child_samples</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>0.1344127583692063</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.978021978021978</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.978021978021978</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.978021978021978</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.978021978021978</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.977891156462585</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.977891156462585</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.977891156462585</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.978021978021978</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.978021978021978</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.978021978021978</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9612403100775194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.937007874015748</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9834710743801653</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9596774193548387</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9885986607950776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>num_leaves</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_child_samples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9847328244274809</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9416058394160584</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9626865671641791</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.937007874015748</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9834710743801653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9596774193548387</v>
+      </c>
+      <c r="E3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9612403100775194</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9612403100775194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9612403100775194</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9612403100775194</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9608703492216144</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9625384568981119</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9611819932595089</v>
+      </c>
+      <c r="E5" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9623501926452341</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9612403100775194</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9612753001683257</v>
+      </c>
+      <c r="E6" t="n">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9997653353358051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>num_leaves</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_child_samples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.993006993006993</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.993006993006993</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.993006993006993</v>
+      </c>
+      <c r="E2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="E3" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9931477918055099</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9931477918055099</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9931477918055099</v>
+      </c>
+      <c r="E5" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9931506849315068</v>
+      </c>
+      <c r="E6" t="n">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9470899470899471</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9296482412060302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9685863874345549</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9851611277542907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>num_leaves</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_child_samples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1808,6 +3179,500 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9664804469273743</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9251336898395722</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9453551912568307</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9296482412060302</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9685863874345549</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="E3" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9470899470899471</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9470899470899471</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9470899470899471</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9470899470899471</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9480643440667023</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9468600386370636</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9470365699873897</v>
+      </c>
+      <c r="E5" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9478694646713512</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9470899470899471</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9470543623549088</v>
+      </c>
+      <c r="E6" t="n">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9684684684684685</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9491525423728814</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9911504424778761</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9946618494763335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>num_leaves</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_child_samples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9903846153846154</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.944954128440367</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9671361502347418</v>
+      </c>
+      <c r="E2" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9911504424778761</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="E3" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9684684684684685</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9684684684684685</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9684684684684685</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9684684684684685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9697685788787485</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9680522854591216</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9684165599658557</v>
+      </c>
+      <c r="E5" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9693971187615256</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9684684684684685</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9684396304114614</v>
+      </c>
+      <c r="E6" t="n">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1851,7 +3716,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8739770867430442</v>
+        <v>0.8678396072013094</v>
       </c>
     </row>
     <row r="3">
@@ -1866,7 +3731,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9076233183856502</v>
+        <v>0.8893728222996515</v>
       </c>
     </row>
     <row r="4">
@@ -1881,7 +3746,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8315529991783073</v>
+        <v>0.8389482333607231</v>
       </c>
     </row>
     <row r="5">
@@ -1896,7 +3761,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8634249471458774</v>
       </c>
     </row>
     <row r="6">
@@ -1911,7 +3776,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9360362134097302</v>
+        <v>0.9309490182212194</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +3790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,11 +3823,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n_estimators</t>
+          <t>learning_rate</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>271</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -1973,11 +3838,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>max_depth</t>
+          <t>n_estimators</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -1992,7 +3857,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -2003,11 +3868,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>learning_rate</t>
+          <t>min_child_samples</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1181700524259746</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2058,13 +3938,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8457486832204665</v>
+        <v>0.8487654320987654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9160554197229014</v>
+        <v>0.8964955175224124</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8794992175273866</v>
+        <v>0.8719778042013476</v>
       </c>
       <c r="E2" t="n">
         <v>1227</v>
@@ -2077,13 +3957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9076233183856502</v>
+        <v>0.8893728222996515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8315529991783073</v>
+        <v>0.8389482333607231</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8634249471458774</v>
       </c>
       <c r="E3" t="n">
         <v>1217</v>
@@ -2096,16 +3976,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8739770867430442</v>
+        <v>0.8678396072013094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8739770867430442</v>
+        <v>0.8678396072013094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8739770867430442</v>
+        <v>0.8678396072013094</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8739770867430442</v>
+        <v>0.8678396072013094</v>
       </c>
     </row>
     <row r="5">
@@ -2115,13 +3995,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8766860008030584</v>
+        <v>0.8690691271992085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8738042094506043</v>
+        <v>0.8677218754415678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8737118729146367</v>
+        <v>0.8677013756736125</v>
       </c>
       <c r="E5" t="n">
         <v>2444</v>
@@ -2134,13 +4014,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8765594160338989</v>
+        <v>0.8689860515236747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8739770867430442</v>
+        <v>0.8678396072013094</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8737355527207444</v>
+        <v>0.8677188733353464</v>
       </c>
       <c r="E6" t="n">
         <v>2444</v>
@@ -2194,7 +4074,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8419540229885057</v>
+        <v>0.8247126436781609</v>
       </c>
     </row>
     <row r="3">
@@ -2209,7 +4089,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8733333333333333</v>
+        <v>0.8441558441558441</v>
       </c>
     </row>
     <row r="4">
@@ -2224,7 +4104,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7844311377245509</v>
+        <v>0.7784431137724551</v>
       </c>
     </row>
     <row r="5">
@@ -2239,7 +4119,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8264984227129337</v>
+        <v>0.8099688473520249</v>
       </c>
     </row>
     <row r="6">
@@ -2254,7 +4134,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8858636318523174</v>
+        <v>0.8985675058722334</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2301,11 +4181,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n_estimators</t>
+          <t>learning_rate</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>130</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -2316,11 +4196,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>max_depth</t>
+          <t>n_estimators</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -2335,7 +4215,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -2346,11 +4226,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>learning_rate</t>
+          <t>min_child_samples</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1355567113176756</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2401,13 +4296,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8092783505154639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8950276243093923</v>
+        <v>0.8674033149171271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8548812664907651</v>
+        <v>0.8373333333333334</v>
       </c>
       <c r="E2" t="n">
         <v>181</v>
@@ -2420,13 +4315,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8733333333333333</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7844311377245509</v>
+        <v>0.7784431137724551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8264984227129337</v>
+        <v>0.8099688473520249</v>
       </c>
       <c r="E3" t="n">
         <v>167</v>
@@ -2439,16 +4334,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8419540229885057</v>
+        <v>0.8247126436781609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8419540229885057</v>
+        <v>0.8247126436781609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8419540229885057</v>
+        <v>0.8247126436781609</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8419540229885057</v>
+        <v>0.8247126436781609</v>
       </c>
     </row>
     <row r="5">
@@ -2458,13 +4353,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8457575757575757</v>
+        <v>0.826717097335654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8397293810169716</v>
+        <v>0.8229232143447911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8406898446018494</v>
+        <v>0.8236510903426791</v>
       </c>
       <c r="E5" t="n">
         <v>348</v>
@@ -2477,13 +4372,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8446482061999303</v>
+        <v>0.8260155385555313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8419540229885057</v>
+        <v>0.8247126436781609</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8412607638732427</v>
+        <v>0.8242015254055216</v>
       </c>
       <c r="E6" t="n">
         <v>348</v>
